--- a/eteamRelease_ext/eteam_document/テーブル関連/テーブル定義書_ext.xlsx
+++ b/eteamRelease_ext/eteam_document/テーブル関連/テーブル定義書_ext.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koreeda-k\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB2382B-D4E3-4514-A65B-FA59BB9CAD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A14A5A9-E5FC-4404-8078-B93AC1500FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="899" xr2:uid="{FC0992F6-C976-4802-831B-4C329C4F36F8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="899" activeTab="5" xr2:uid="{FC0992F6-C976-4802-831B-4C329C4F36F8}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="2" r:id="rId1"/>
-    <sheet name="開店日閉店日マスター" sheetId="284" r:id="rId2"/>
-    <sheet name="支払依頼Ext" sheetId="281" r:id="rId3"/>
-    <sheet name="取引先振込先Ext" sheetId="283" r:id="rId4"/>
-    <sheet name="不良データログ" sheetId="6" state="hidden" r:id="rId5"/>
-    <sheet name="バッチログ不良ログ紐づけ" sheetId="7" state="hidden" r:id="rId6"/>
-    <sheet name="負担部門科目枝番予算" sheetId="12" state="hidden" r:id="rId7"/>
-    <sheet name="負担部門科目枝番残高" sheetId="13" state="hidden" r:id="rId8"/>
-    <sheet name="負担部門科目予算" sheetId="14" state="hidden" r:id="rId9"/>
+    <sheet name="会社切替設定" sheetId="285" r:id="rId2"/>
+    <sheet name="開店日閉店日マスター" sheetId="284" r:id="rId3"/>
+    <sheet name="支払依頼Ext" sheetId="281" r:id="rId4"/>
+    <sheet name="取引先振込先Ext" sheetId="283" r:id="rId5"/>
+    <sheet name="URL情報" sheetId="286" r:id="rId6"/>
+    <sheet name="不良データログ" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="バッチログ不良ログ紐づけ" sheetId="7" state="hidden" r:id="rId8"/>
+    <sheet name="負担部門科目枝番予算" sheetId="12" state="hidden" r:id="rId9"/>
+    <sheet name="負担部門科目枝番残高" sheetId="13" state="hidden" r:id="rId10"/>
+    <sheet name="負担部門科目予算" sheetId="14" state="hidden" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="247">
-  <si>
-    <t>テーブル一覧</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="288">
   <si>
     <t>No.</t>
   </si>
@@ -843,22 +842,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>取込先振込先Ext</t>
-    <rPh sb="0" eb="2">
-      <t>トリコミ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>フリコミ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>サキ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>開店日閉店日マスター</t>
     <rPh sb="0" eb="3">
       <t>カイテンビ</t>
@@ -954,12 +937,271 @@
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t>テーブル一覧</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>取込先振込先Ext</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>取引先振込先テーブルに対する追加テーブル</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>会社切替設定</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キリカエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>kaisha_kirikae_settei</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>会社切替設定テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キリカエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>URL情報</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>url_info</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2024/04/30</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>会社切替設定</t>
+    <rPh sb="0" eb="6">
+      <t>カイシャキリカエセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>会社切替設定を登録するテーブル</t>
+    <rPh sb="0" eb="6">
+      <t>カイシャキリカエセッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>スキーマコード</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>有効期限開始日</t>
+    <rPh sb="0" eb="4">
+      <t>ユウコウキゲン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>有効期限終了日</t>
+    <rPh sb="0" eb="4">
+      <t>ユウコウキゲン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>表示順</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>登録ユーザーID</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>登録日時</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>更新ユーザーID</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>yuukou_kigen_from</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>yuukou_kigen_to</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>hyouji_jun</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>touroku_user_id</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>touroku_time</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>koushin_user_id</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>koushin_time</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>character varying(30)</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>timestamp(6) without time zone</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>kaisha_kirikae_settei_pkey</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>scheme_cd</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>user_id,scheme_cd,yuukou_kigen_from</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>URLの情報を登録するテーブル</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>伝票ID</t>
+    <rPh sb="0" eb="2">
+      <t>デンピョウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>denpyou_id</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>edno</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>枝番号</t>
+    <rPh sb="0" eb="2">
+      <t>エダバン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>url_info_pkey</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>denpyou_id,edano,url</t>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1045,6 +1287,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF7030A0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1084,7 +1342,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1594,6 +1852,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1603,7 +1887,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1715,12 +1999,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1733,6 +2011,54 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1763,56 +2089,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2130,9 +2432,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BB570C-EC3D-4DB9-9398-2B6329925DEB}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2147,99 +2451,2160 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="D1"/>
       <c r="F1" s="34"/>
       <c r="G1" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="41" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>4</v>
       </c>
       <c r="F2" s="36"/>
       <c r="G2" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="37">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A3" s="48">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>233</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>229</v>
-      </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="1" t="s">
-        <v>210</v>
-      </c>
+      <c r="B3" s="67" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="39">
+      <c r="A4" s="37">
         <v>2</v>
       </c>
-      <c r="B4" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="C4" s="66" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>229</v>
-      </c>
-      <c r="F4" s="42"/>
+      <c r="B4" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="F4" s="39"/>
       <c r="G4" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="14">
-        <v>2</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>231</v>
-      </c>
-      <c r="C5" s="64" t="s">
-        <v>220</v>
-      </c>
-      <c r="D5" s="65" t="s">
-        <v>230</v>
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="37">
+        <v>3</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="37">
+        <v>4</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="14">
+        <v>5</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
   <hyperlinks>
-    <hyperlink ref="C3" location="開店日閉店日マスター!A1" display="kaitenbi_heitenbi_master" xr:uid="{121D858B-A5E7-4E0E-B4DB-FB494320586D}"/>
-    <hyperlink ref="C5" location="取引先振込先Ext!A1" display="torihikisaki_furikomisaki_ext" xr:uid="{B3B2631B-4F49-457E-A6FE-C8973115DFF8}"/>
-    <hyperlink ref="C4" location="支払依頼Ext!A1" display="shiharai_irai_ext" xr:uid="{1DDCF1A0-ABE6-42F5-9D98-67229F7A1DAA}"/>
+    <hyperlink ref="C4" location="開店日閉店日マスター!A1" display="kaitenbi_heitenbi_master" xr:uid="{121D858B-A5E7-4E0E-B4DB-FB494320586D}"/>
+    <hyperlink ref="C7" location="取引先振込先Ext!A1" display="torihikisaki_furikomisaki_ext" xr:uid="{B3B2631B-4F49-457E-A6FE-C8973115DFF8}"/>
+    <hyperlink ref="C5" location="支払依頼Ext!A1" display="shiharai_irai_ext" xr:uid="{1DDCF1A0-ABE6-42F5-9D98-67229F7A1DAA}"/>
+    <hyperlink ref="C3" location="会社切替設定!A1" display="kaisha_kirikae_settei" xr:uid="{4CFEBDCC-3B1C-4014-AEA7-18489EE424FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D35482-BF46-4A00-ABBE-07D399F55EA2}">
-  <dimension ref="A1:G21"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9339C2-F112-4A72-84D1-40E39842A667}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B13" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.75" style="8" customWidth="1"/>
+    <col min="3" max="4" width="14.625" style="8" customWidth="1"/>
+    <col min="5" max="6" width="8.625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="28.625" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="50"/>
+      <c r="E2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="49"/>
+      <c r="G2" s="51"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="54"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="52"/>
+      <c r="G4" s="54"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="53"/>
+      <c r="E5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="52"/>
+      <c r="G5" s="54"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="54"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="63"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="5">
+        <v>1</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
+        <v>3</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
+        <v>4</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="3">
+        <v>5</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="3">
+        <v>6</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="3">
+        <v>7</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="3">
+        <v>8</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="3">
+        <v>9</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="3">
+        <v>10</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="3">
+        <v>11</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="3">
+        <v>12</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="3">
+        <v>13</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="3">
+        <v>14</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="3">
+        <v>15</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="3">
+        <v>16</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="3">
+        <v>17</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" s="3">
+        <v>18</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="3">
+        <v>19</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="3">
+        <v>20</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="3">
+        <v>21</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" s="3">
+        <v>22</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" s="3">
+        <v>23</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" s="3">
+        <v>24</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38" s="3">
+        <v>25</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" s="3">
+        <v>26</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40" s="3">
+        <v>27</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41" s="3">
+        <v>28</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A42" s="3">
+        <v>29</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43" s="3">
+        <v>30</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44" s="3">
+        <v>31</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A45" s="3">
+        <v>32</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46" s="3">
+        <v>33</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47" s="3">
+        <v>34</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48" s="3">
+        <v>35</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A49" s="3">
+        <v>36</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A50" s="3">
+        <v>37</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A51" s="3">
+        <v>38</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A52" s="3">
+        <v>39</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A53" s="3">
+        <v>40</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A54" s="3">
+        <v>41</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A55" s="3">
+        <v>42</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A56" s="3">
+        <v>43</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="4">
+        <v>44</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A60" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="20"/>
+      <c r="E60" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="14">
+        <v>1</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C61" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" s="56"/>
+      <c r="E61" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G61" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805ED0B3-A83B-4532-8711-8907EEE72224}">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:G42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.75" style="8" customWidth="1"/>
+    <col min="3" max="4" width="14.625" style="8" customWidth="1"/>
+    <col min="5" max="6" width="8.625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="28.625" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="50"/>
+      <c r="E2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="49"/>
+      <c r="G2" s="51"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="54"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="52"/>
+      <c r="G4" s="54"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="53"/>
+      <c r="E5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="52"/>
+      <c r="G5" s="54"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="54"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="63"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="5">
+        <v>1</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
+        <v>3</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
+        <v>4</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="3">
+        <v>5</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="3">
+        <v>6</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="3">
+        <v>7</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="3">
+        <v>8</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="3">
+        <v>9</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="3">
+        <v>10</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="3">
+        <v>11</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="3">
+        <v>12</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="3">
+        <v>13</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="3">
+        <v>14</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="3">
+        <v>15</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="3">
+        <v>16</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="3">
+        <v>17</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" s="3">
+        <v>18</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="3">
+        <v>19</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="3">
+        <v>20</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="3">
+        <v>21</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" s="3">
+        <v>22</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" s="3">
+        <v>23</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" s="3">
+        <v>24</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="4">
+        <v>25</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="20"/>
+      <c r="E41" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="14">
+        <v>1</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="D42" s="56"/>
+      <c r="E42" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE5EC13-2969-4F33-B7EC-486E6D2A1156}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2255,142 +4620,549 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="56"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="59"/>
+        <v>15</v>
+      </c>
+      <c r="F2" s="49"/>
+      <c r="G2" s="51"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="58"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="G3" s="60"/>
+        <v>16</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>253</v>
+      </c>
+      <c r="G3" s="54"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
+        <v>14</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="60"/>
+        <v>18</v>
+      </c>
+      <c r="F4" s="52"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="D5" s="58"/>
+        <v>1</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="53"/>
       <c r="E5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="60"/>
+        <v>19</v>
+      </c>
+      <c r="F5" s="52"/>
+      <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="54"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="57" t="s">
-        <v>233</v>
-      </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="60"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="46" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
+      <c r="B8" s="60" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="49"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="69">
         <v>1</v>
       </c>
+      <c r="B14" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
+        <v>3</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
+        <v>4</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="D17" s="72" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="3">
+        <v>5</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="3">
+        <v>6</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="3">
+        <v>7</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="3">
+        <v>8</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="14">
+        <v>9</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="F22" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="14">
+        <v>1</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="D26" s="56"/>
+      <c r="E26" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <hyperlinks>
+    <hyperlink ref="G1" location="テーブル一覧!A1" display="目次に戻る" xr:uid="{C24B5D83-B0F6-41BC-AFCA-ABE89EB2C362}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D35482-BF46-4A00-ABBE-07D399F55EA2}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.75" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="25" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="32.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="50"/>
+      <c r="E2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="49"/>
+      <c r="G2" s="51"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="G3" s="54"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="52"/>
+      <c r="G4" s="54"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="53"/>
+      <c r="E5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="52"/>
+      <c r="G5" s="54"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="54"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="63"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="B13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="G13" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -2398,109 +5170,109 @@
         <v>1</v>
       </c>
       <c r="B14" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="37">
+        <v>2</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="D15" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="37">
+        <v>3</v>
+      </c>
+      <c r="B16" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="C16" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="39">
-        <v>2</v>
-      </c>
-      <c r="B15" s="67" t="s">
-        <v>236</v>
-      </c>
-      <c r="C15" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="D15" s="67" t="s">
-        <v>238</v>
-      </c>
-      <c r="E15" s="67" t="s">
-        <v>240</v>
-      </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="69"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="39">
-        <v>3</v>
-      </c>
-      <c r="B16" s="67" t="s">
-        <v>241</v>
-      </c>
-      <c r="C16" s="67" t="s">
-        <v>243</v>
-      </c>
-      <c r="D16" s="67" t="s">
-        <v>207</v>
-      </c>
-      <c r="E16" s="67" t="s">
-        <v>203</v>
-      </c>
-      <c r="F16" s="68"/>
-      <c r="G16" s="69"/>
+      <c r="E16" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>4</v>
       </c>
       <c r="B17" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>244</v>
-      </c>
       <c r="D17" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="G20" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2508,17 +5280,17 @@
         <v>1</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="D21" s="54"/>
+        <v>231</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="D21" s="56"/>
       <c r="E21" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" s="16"/>
     </row>
@@ -2546,7 +5318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880CBA5D-4B97-4795-B88A-3F851233A0CB}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -2567,142 +5339,142 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="56"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="59"/>
+        <v>15</v>
+      </c>
+      <c r="F2" s="49"/>
+      <c r="G2" s="51"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="58"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="G3" s="60"/>
+        <v>16</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="G3" s="54"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
+        <v>14</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="60"/>
+        <v>18</v>
+      </c>
+      <c r="F4" s="52"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="D5" s="58"/>
+        <v>1</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="53"/>
       <c r="E5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="60"/>
+        <v>19</v>
+      </c>
+      <c r="F5" s="52"/>
+      <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="54"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="57" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="60"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
+      <c r="B8" s="60" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="49"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="G13" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -2710,22 +5482,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="D14" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>63</v>
-      </c>
       <c r="E14" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2733,48 +5505,48 @@
         <v>2</v>
       </c>
       <c r="B15" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>216</v>
-      </c>
       <c r="D15" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="G18" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2782,17 +5554,17 @@
         <v>1</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="54"/>
+        <v>216</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="56"/>
       <c r="E19" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" s="16"/>
     </row>
@@ -2820,13 +5592,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF13BD9-C122-4E8B-B19C-BC36C195232B}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2840,140 +5610,140 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="56"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="59"/>
+        <v>15</v>
+      </c>
+      <c r="F2" s="49"/>
+      <c r="G2" s="51"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="58"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="G3" s="60"/>
+        <v>16</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="G3" s="54"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
+        <v>14</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="60"/>
+        <v>18</v>
+      </c>
+      <c r="F4" s="52"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>219</v>
-      </c>
-      <c r="D5" s="58"/>
+        <v>1</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="53"/>
       <c r="E5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="60"/>
+        <v>19</v>
+      </c>
+      <c r="F5" s="52"/>
+      <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="54"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="57" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="60"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="49"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="G13" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -2981,22 +5751,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>198</v>
-      </c>
       <c r="D14" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -3004,22 +5774,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>201</v>
-      </c>
       <c r="D15" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -3027,22 +5797,22 @@
         <v>7</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -3050,22 +5820,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3073,48 +5843,48 @@
         <v>5</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="G21" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3122,17 +5892,17 @@
         <v>1</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>202</v>
-      </c>
-      <c r="D22" s="54"/>
+        <v>226</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" s="56"/>
       <c r="E22" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22" s="16"/>
     </row>
@@ -3160,7 +5930,296 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD184AAE-31C3-4CC3-8CB6-50328C215315}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.75" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="25" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="32.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="50"/>
+      <c r="E2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="49"/>
+      <c r="G2" s="51"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>253</v>
+      </c>
+      <c r="G3" s="54"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="52"/>
+      <c r="G4" s="54"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" s="53"/>
+      <c r="E5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="52"/>
+      <c r="G5" s="54"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="54"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="60" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="63"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="69">
+        <v>1</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="4">
+        <v>3</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="14">
+        <v>1</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="D20" s="56"/>
+      <c r="E20" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <hyperlinks>
+    <hyperlink ref="G1" location="テーブル一覧!A1" display="目次に戻る" xr:uid="{BEB3BC2D-0BF2-4FEF-AE5D-1AEF49183D83}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE39BBA-A143-49FC-BF70-ECC6041B53C4}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G22"/>
@@ -3181,139 +6240,139 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="56"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="59"/>
+        <v>15</v>
+      </c>
+      <c r="F2" s="49"/>
+      <c r="G2" s="51"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="58"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="60"/>
+      <c r="G3" s="54"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
+        <v>14</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="60"/>
+        <v>18</v>
+      </c>
+      <c r="F4" s="52"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="58"/>
+        <v>1</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="53"/>
       <c r="E5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="60"/>
+        <v>19</v>
+      </c>
+      <c r="F5" s="52"/>
+      <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="54"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="60"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
+      <c r="B8" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="49"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="G13" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -3321,22 +6380,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="D14" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="E14" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -3344,22 +6403,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>46</v>
-      </c>
       <c r="D15" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -3367,22 +6426,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>48</v>
-      </c>
       <c r="D16" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -3390,22 +6449,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="D17" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -3413,22 +6472,22 @@
         <v>5</v>
       </c>
       <c r="B18" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>52</v>
-      </c>
       <c r="D18" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3436,48 +6495,48 @@
         <v>6</v>
       </c>
       <c r="B19" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>54</v>
-      </c>
       <c r="D19" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="31" t="s">
         <v>30</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>31</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="30" t="s">
-        <v>33</v>
-      </c>
       <c r="G22" s="33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3500,7 +6559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE349B5-EBDA-4070-BC17-4363055DE826}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G20"/>
@@ -3521,139 +6580,139 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="56"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="59"/>
+        <v>15</v>
+      </c>
+      <c r="F2" s="49"/>
+      <c r="G2" s="51"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="58"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="60"/>
+      <c r="G3" s="54"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
+        <v>14</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="60"/>
+        <v>18</v>
+      </c>
+      <c r="F4" s="52"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="58"/>
+        <v>1</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="53"/>
       <c r="E5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="60"/>
+        <v>19</v>
+      </c>
+      <c r="F5" s="52"/>
+      <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="54"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="60"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
+      <c r="B8" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="49"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="G13" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -3661,22 +6720,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>36</v>
-      </c>
       <c r="D14" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -3684,22 +6743,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>58</v>
-      </c>
       <c r="D15" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3707,48 +6766,48 @@
         <v>3</v>
       </c>
       <c r="B16" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="D16" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>41</v>
-      </c>
       <c r="E16" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="G19" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3756,17 +6815,17 @@
         <v>1</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="54"/>
+      <c r="D20" s="56"/>
       <c r="E20" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" s="16"/>
     </row>
@@ -3791,7 +6850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836FA31D-DF29-4547-8D56-0464BAB5EA13}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G43"/>
@@ -3812,139 +6871,139 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="56"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="59"/>
+        <v>15</v>
+      </c>
+      <c r="F2" s="49"/>
+      <c r="G2" s="51"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="58"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="60"/>
+      <c r="G3" s="54"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
+        <v>14</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="60"/>
+        <v>18</v>
+      </c>
+      <c r="F4" s="52"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="58"/>
+        <v>1</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="53"/>
       <c r="E5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="60"/>
+        <v>19</v>
+      </c>
+      <c r="F5" s="52"/>
+      <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="54"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="60"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
+      <c r="B8" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="49"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="G13" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -3952,22 +7011,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>69</v>
-      </c>
       <c r="D14" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -3975,22 +7034,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>71</v>
-      </c>
       <c r="D15" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -3998,22 +7057,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="D16" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>74</v>
-      </c>
       <c r="E16" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -4021,22 +7080,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="D17" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>77</v>
-      </c>
       <c r="E17" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -4044,22 +7103,22 @@
         <v>5</v>
       </c>
       <c r="B18" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>79</v>
-      </c>
       <c r="D18" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -4067,22 +7126,22 @@
         <v>6</v>
       </c>
       <c r="B19" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>81</v>
-      </c>
       <c r="D19" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -4090,22 +7149,22 @@
         <v>7</v>
       </c>
       <c r="B20" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>83</v>
-      </c>
       <c r="D20" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -4113,22 +7172,22 @@
         <v>8</v>
       </c>
       <c r="B21" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>85</v>
-      </c>
       <c r="D21" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -4136,22 +7195,22 @@
         <v>9</v>
       </c>
       <c r="B22" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>87</v>
-      </c>
       <c r="D22" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
@@ -4159,22 +7218,22 @@
         <v>10</v>
       </c>
       <c r="B23" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>89</v>
-      </c>
       <c r="D23" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
@@ -4182,22 +7241,22 @@
         <v>11</v>
       </c>
       <c r="B24" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>91</v>
-      </c>
       <c r="D24" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
@@ -4205,22 +7264,22 @@
         <v>12</v>
       </c>
       <c r="B25" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>93</v>
-      </c>
       <c r="D25" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
@@ -4228,22 +7287,22 @@
         <v>13</v>
       </c>
       <c r="B26" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="21" t="s">
-        <v>95</v>
-      </c>
       <c r="D26" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
@@ -4251,22 +7310,22 @@
         <v>14</v>
       </c>
       <c r="B27" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="21" t="s">
-        <v>97</v>
-      </c>
       <c r="D27" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -4274,22 +7333,22 @@
         <v>15</v>
       </c>
       <c r="B28" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="21" t="s">
-        <v>99</v>
-      </c>
       <c r="D28" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
@@ -4297,22 +7356,22 @@
         <v>16</v>
       </c>
       <c r="B29" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="21" t="s">
-        <v>101</v>
-      </c>
       <c r="D29" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
@@ -4320,22 +7379,22 @@
         <v>17</v>
       </c>
       <c r="B30" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="21" t="s">
-        <v>103</v>
-      </c>
       <c r="D30" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
@@ -4343,22 +7402,22 @@
         <v>18</v>
       </c>
       <c r="B31" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="21" t="s">
-        <v>105</v>
-      </c>
       <c r="D31" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
@@ -4366,22 +7425,22 @@
         <v>19</v>
       </c>
       <c r="B32" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="D32" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
@@ -4389,22 +7448,22 @@
         <v>20</v>
       </c>
       <c r="B33" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="21" t="s">
-        <v>109</v>
-      </c>
       <c r="D33" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -4412,22 +7471,22 @@
         <v>21</v>
       </c>
       <c r="B34" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="21" t="s">
-        <v>111</v>
-      </c>
       <c r="D34" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
@@ -4435,22 +7494,22 @@
         <v>22</v>
       </c>
       <c r="B35" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="21" t="s">
-        <v>113</v>
-      </c>
       <c r="D35" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
@@ -4458,22 +7517,22 @@
         <v>23</v>
       </c>
       <c r="B36" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="21" t="s">
-        <v>115</v>
-      </c>
       <c r="D36" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
@@ -4481,22 +7540,22 @@
         <v>24</v>
       </c>
       <c r="B37" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="21" t="s">
-        <v>117</v>
-      </c>
       <c r="D37" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
@@ -4504,22 +7563,22 @@
         <v>25</v>
       </c>
       <c r="B38" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="21" t="s">
-        <v>119</v>
-      </c>
       <c r="D38" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -4527,48 +7586,48 @@
         <v>26</v>
       </c>
       <c r="B39" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>121</v>
-      </c>
       <c r="D39" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="G42" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -4576,17 +7635,17 @@
         <v>1</v>
       </c>
       <c r="B43" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="D43" s="54"/>
+      <c r="D43" s="56"/>
       <c r="E43" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G43" s="16"/>
     </row>
@@ -4609,2035 +7668,4 @@
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9339C2-F112-4A72-84D1-40E39842A667}">
-  <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:G61"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.75" style="8" customWidth="1"/>
-    <col min="3" max="4" width="14.625" style="8" customWidth="1"/>
-    <col min="5" max="6" width="8.625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="28.625" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="59"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="60"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="60"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="60"/>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="60"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="49"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="5">
-        <v>1</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="3">
-        <v>2</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="3">
-        <v>3</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="3">
-        <v>4</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="3">
-        <v>5</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="3">
-        <v>6</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="3">
-        <v>7</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="3">
-        <v>8</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="3">
-        <v>9</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="3">
-        <v>10</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="3">
-        <v>11</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="3">
-        <v>12</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="3">
-        <v>13</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="3">
-        <v>14</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="3">
-        <v>15</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="3">
-        <v>16</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="3">
-        <v>17</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="3">
-        <v>18</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="3">
-        <v>19</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="3">
-        <v>20</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="3">
-        <v>21</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="3">
-        <v>22</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="3">
-        <v>23</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="3">
-        <v>24</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" s="3">
-        <v>25</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A39" s="3">
-        <v>26</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A40" s="3">
-        <v>27</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A41" s="3">
-        <v>28</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A42" s="3">
-        <v>29</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A43" s="3">
-        <v>30</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A44" s="3">
-        <v>31</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A45" s="3">
-        <v>32</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A46" s="3">
-        <v>33</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="3">
-        <v>34</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F47" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A48" s="3">
-        <v>35</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F48" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A49" s="3">
-        <v>36</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F49" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A50" s="3">
-        <v>37</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F50" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A51" s="3">
-        <v>38</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F51" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A52" s="3">
-        <v>39</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F52" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A53" s="3">
-        <v>40</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A54" s="3">
-        <v>41</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F54" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A55" s="3">
-        <v>42</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="D55" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F55" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A56" s="3">
-        <v>43</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="D56" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E56" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F56" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="4">
-        <v>44</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F57" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" s="28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A60" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D60" s="20"/>
-      <c r="E60" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G60" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="14">
-        <v>1</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C61" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="D61" s="54"/>
-      <c r="E61" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G61" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-  </mergeCells>
-  <phoneticPr fontId="7"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805ED0B3-A83B-4532-8711-8907EEE72224}">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:G42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.75" style="8" customWidth="1"/>
-    <col min="3" max="4" width="14.625" style="8" customWidth="1"/>
-    <col min="5" max="6" width="8.625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="28.625" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="59"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="60"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="60"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="60"/>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="60"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="49"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="5">
-        <v>1</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="3">
-        <v>2</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="3">
-        <v>3</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="3">
-        <v>4</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="3">
-        <v>5</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="3">
-        <v>6</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="3">
-        <v>7</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="3">
-        <v>8</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="3">
-        <v>9</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="3">
-        <v>10</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="3">
-        <v>11</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="3">
-        <v>12</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="3">
-        <v>13</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="3">
-        <v>14</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="3">
-        <v>15</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="3">
-        <v>16</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="3">
-        <v>17</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="3">
-        <v>18</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="3">
-        <v>19</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="3">
-        <v>20</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="3">
-        <v>21</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="3">
-        <v>22</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="3">
-        <v>23</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="3">
-        <v>24</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="4">
-        <v>25</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A41" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="14">
-        <v>1</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>196</v>
-      </c>
-      <c r="D42" s="54"/>
-      <c r="E42" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-  </mergeCells>
-  <phoneticPr fontId="7"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>